--- a/evaluation/2105-bf-hol-2_nonscheds.xlsx
+++ b/evaluation/2105-bf-hol-2_nonscheds.xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-r [lr=3 d=1.5 b1=0.9 b2=0.999 e=0.1]</t>
+          <t>gdpa-r</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>gdpa-pd [lr=3 d=1.5 b1=0.9 b2=0.999 e=0.1]</t>
+          <t>gdpa-pd</t>
         </is>
       </c>
     </row>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -634,10 +634,10 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
@@ -665,19 +665,19 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">

--- a/evaluation/2105-bf-hol-2_nonscheds.xlsx
+++ b/evaluation/2105-bf-hol-2_nonscheds.xlsx
@@ -574,7 +574,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -631,10 +631,10 @@
         <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>8</v>
@@ -654,7 +654,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11" t="n">
         <v>14</v>
@@ -665,19 +665,19 @@
         <v>0.7105263157894737</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>0.7315789473684211</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>0.7526315789473684</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>0.7736842105263158</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>0.7947368421052632</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>0.8157894736842105</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>0.8368421052631578</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>0.8578947368421053</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>0.8789473684210527</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>0.9</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
